--- a/data/case1/20/Plm1_5.xlsx
+++ b/data/case1/20/Plm1_5.xlsx
@@ -57,263 +57,263 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="15.42578125" customWidth="true"/>
-    <col min="2" max="2" width="15.42578125" customWidth="true"/>
+    <col min="2" max="2" width="14.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>-0.28668939693125139</v>
+        <v>-0.35283127929076841</v>
       </c>
       <c r="B1" s="0">
-        <v>0.28597279910115958</v>
+        <v>0.35167003870859048</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.23986613421275216</v>
+        <v>-0.23628817394460633</v>
       </c>
       <c r="B2" s="0">
-        <v>0.23696299348778815</v>
+        <v>0.23344164283753166</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.052003847402158243</v>
+        <v>-0.13048953651130901</v>
       </c>
       <c r="B3" s="0">
-        <v>0.051773326301432832</v>
+        <v>0.12963781435412258</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>-0.11376444235543914</v>
+        <v>-0.19163499384026927</v>
       </c>
       <c r="B4" s="0">
-        <v>0.1133045051234447</v>
+        <v>0.19031019817672323</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-0.107304505998564</v>
+        <v>-0.18431019844533214</v>
       </c>
       <c r="B5" s="0">
-        <v>0.10640267525558045</v>
+        <v>0.18162246701316942</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>-0.030126867651018685</v>
+        <v>-0.080626006195393174</v>
       </c>
       <c r="B6" s="0">
-        <v>0.030115757984461755</v>
+        <v>0.080535628080339094</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>-0.010115759038527017</v>
+        <v>-0.060535628415310683</v>
       </c>
       <c r="B7" s="0">
-        <v>0.010108789881304148</v>
+        <v>0.060348283090329247</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.0098912090631850802</v>
+        <v>-0.018260769044305292</v>
       </c>
       <c r="B8" s="0">
-        <v>-0.0099223961727510357</v>
+        <v>0.018237478166689414</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.015922395276777301</v>
+        <v>-0.012237478451605277</v>
       </c>
       <c r="B9" s="0">
-        <v>-0.015970218537883163</v>
+        <v>0.012226525482893713</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>-0.056006688995942966</v>
+        <v>-0.0062265257687172948</v>
       </c>
       <c r="B10" s="0">
-        <v>0.055964500263520733</v>
+        <v>0.0062272638118940904</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>-0.05146450114051504</v>
+        <v>-0.001727264091943681</v>
       </c>
       <c r="B11" s="0">
-        <v>0.051389081468411035</v>
+        <v>0.0017271836650500916</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>-0.045389082365419942</v>
+        <v>-0.045407982776407785</v>
       </c>
       <c r="B12" s="0">
-        <v>0.045147848318554118</v>
+        <v>0.045156443780487443</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>-0.039147849230165122</v>
+        <v>-0.039156444071348773</v>
       </c>
       <c r="B13" s="0">
-        <v>0.039082525914499122</v>
+        <v>0.039087889773379736</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>-0.027082526898065673</v>
+        <v>-0.027087890089060984</v>
       </c>
       <c r="B14" s="0">
-        <v>0.027051433172555761</v>
+        <v>0.027054655667572369</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>-0.021051434091209131</v>
+        <v>-0.021054655961103563</v>
       </c>
       <c r="B15" s="0">
-        <v>0.021026999144345027</v>
+        <v>0.021028487596582046</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>-0.015027000065757523</v>
+        <v>-0.015028487891193043</v>
       </c>
       <c r="B16" s="0">
-        <v>0.015003966661751633</v>
+        <v>0.015004679043381763</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>-0.0090039675868887059</v>
+        <v>-0.0090046793394211733</v>
       </c>
       <c r="B17" s="0">
-        <v>0.0089999990403741847</v>
+        <v>0.0089999996919578606</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>-0.036106665771658442</v>
+        <v>-0.10538186503261926</v>
       </c>
       <c r="B18" s="0">
-        <v>0.036096337695013858</v>
+        <v>0.10519832243772242</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>-0.027096338567840217</v>
+        <v>-0.096198322703515693</v>
       </c>
       <c r="B19" s="0">
-        <v>0.027013124120398579</v>
+        <v>0.094728368156896448</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>-0.018013125001939301</v>
+        <v>-0.085728368432334001</v>
       </c>
       <c r="B20" s="0">
-        <v>0.018004300168014353</v>
+        <v>0.085388106488661464</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>-0.0090043010507434573</v>
+        <v>-0.0090044542460683274</v>
       </c>
       <c r="B21" s="0">
-        <v>0.0089999991166314075</v>
+        <v>0.0089999997219392114</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>-0.10137114617872456</v>
+        <v>-0.093952106598750973</v>
       </c>
       <c r="B22" s="0">
-        <v>0.10099999190550513</v>
+        <v>0.093637411031759044</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>-0.091999992811017783</v>
+        <v>-0.084637411306905719</v>
       </c>
       <c r="B23" s="0">
-        <v>0.09138576507189633</v>
+        <v>0.084127462019156773</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>-0.042127155576345388</v>
+        <v>-0.04212746242712484</v>
       </c>
       <c r="B24" s="0">
-        <v>0.041999998699619567</v>
+        <v>0.041999999589684478</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>-0.070275808499268066</v>
+        <v>-0.094996461097295537</v>
       </c>
       <c r="B25" s="0">
-        <v>0.070150086832494907</v>
+        <v>0.09474541318052232</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>-0.064150087728908289</v>
+        <v>-0.08874541346130016</v>
       </c>
       <c r="B26" s="0">
-        <v>0.063991322823959251</v>
+        <v>0.088422433597767025</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>-0.057991323723411092</v>
+        <v>-0.082422433880346979</v>
       </c>
       <c r="B27" s="0">
-        <v>0.057454667431549034</v>
+        <v>0.081319691255272275</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>-0.051454668345060739</v>
+        <v>-0.075319691544516232</v>
       </c>
       <c r="B28" s="0">
-        <v>0.051096996654082183</v>
+        <v>0.074555511769313298</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>-0.062529342838184121</v>
+        <v>-0.062555512086541754</v>
       </c>
       <c r="B29" s="0">
-        <v>0.062167230778271687</v>
+        <v>0.062176297307464878</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>-0.042167231865281263</v>
+        <v>-0.042176297658075512</v>
       </c>
       <c r="B30" s="0">
-        <v>0.042018380892970164</v>
+        <v>0.042020932366467534</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>-0.027018381932442992</v>
+        <v>-0.027020932700953182</v>
       </c>
       <c r="B31" s="0">
-        <v>0.027000538872702151</v>
+        <v>0.027000922735819444</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>-0.0060005399813825022</v>
+        <v>-0.0060009230941728831</v>
       </c>
       <c r="B32" s="0">
-        <v>0.0059999990608057274</v>
+        <v>0.0059999996997248672</v>
       </c>
     </row>
   </sheetData>
